--- a/biology/Histoire de la zoologie et de la botanique/Arsène_Thiébaut_de_Berneaud/Arsène_Thiébaut_de_Berneaud.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arsène_Thiébaut_de_Berneaud/Arsène_Thiébaut_de_Berneaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ars%C3%A8ne_Thi%C3%A9baut_de_Berneaud</t>
+          <t>Arsène_Thiébaut_de_Berneaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arsène (ou Arsenne) Thiébaut de Berneaud, né le 14 janvier 1777 à Sedan et mort en janvier 1850 à  Paris, est un militaire et agronome français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ars%C3%A8ne_Thi%C3%A9baut_de_Berneaud</t>
+          <t>Arsène_Thiébaut_de_Berneaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le registre paroissial de Sedan le note comme Thiebaut Jean Sainte-Marie Antoine Arsene. Il achève ses études lorsque la Révolution commence. Il s’enrôle en 1792, dès que la guerre est déclarée, dans un régiment de hussards. S’étant distingué dans plusieurs occasions, notamment dans la bataille de Kaiserslautern, en décembre 1793, où il reçoit cinq blessures graves, il est déclaré « avoir bien mérité à la patrie » par un décret de la Convention. Ne pouvant plus alors supporter les fatigues de la guerre, il se retire avec le grade honoraire de capitaine et entre dans l’administration du département des Vosges, puis dans celui de la Meurthe, et au Ministère de l’Intérieur sous Benezech (1795).
 En 1796, sur l’ordre du directeur Carnot, il est chargé d’une mission importante dans l’armée, sous le commandement de Moreau, en Bavière ; il sauve, au combat de Kamlach, la vie d'un officier hessois qui lui donnera sa fille, Charlotte de Berneaud, qu'il épouse vers 1806. C'est à la suite de ce mariage qu' il se fait appeler Thiébaut de Berneaud. Puis il revient à ses premières études et reprend le travail de Bacon et de Diderot sur les connaissances humaines. Quoique bien au-dessous de ses modèles, l’ouvrage du jeune philosophe obtient le suffrage de la classe des sciences morales et politiques de l’Institut, est imprimé aux frais de l’État.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ars%C3%A8ne_Thi%C3%A9baut_de_Berneaud</t>
+          <t>Arsène_Thiébaut_de_Berneaud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traité du père de famille, 1799
 Voyage à l'Isle des Peupliers, enrichi de quatre gravures par Louis-François Mariage, Lepetit, libraire, 1799
@@ -559,7 +575,7 @@
 Éloge historique de l'abbé François Rozier, restaurateur de l'agriculture française, A. Barbier, 1833, 92 p.
 Manuel du cultivateur français, ou l’Art de bien cultiver les terres, de soigner les bestiaux, et de retirer des unes et des autres le plus de bénéfices possibles, Paris : Libraire encyclopédique de Roret, 1829, 2 vol. in-18 ; nouvelle édition, revue corrigée, considérablement augmentée (Nouveau manuel complet du cultivateur français), Paris : Roret, 1841, 2 tomes en 1 vol., 295-276 p.
 Nouveau manuel complet de la laiterie, ou Traité analytique et critique de toutes les méthodes adoptées ou proposées pour le gouvernement de la laiterie, avec l’indication des moyens les plus simples et les plus certains de tirer parti du lait des animaux domestiques, de faire du beurre, de confectionner les fromages, Paris : Librairie encyclopédique de Roret, 1842, in-18, XII-255 p.
-Traité élémentaire de Botanique et de physiologie végétale, Société encyclographique[1] des Sciences médicales, rue de Flandre 155, Bruxelles, 1838</t>
+Traité élémentaire de Botanique et de physiologie végétale, Société encyclographique des Sciences médicales, rue de Flandre 155, Bruxelles, 1838</t>
         </is>
       </c>
     </row>
